--- a/0.1 docs/trimestre 6/Lista de chequeo/PL02 - Lista de chequeo producto software.xlsx
+++ b/0.1 docs/trimestre 6/Lista de chequeo/PL02 - Lista de chequeo producto software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_de_control_de_versiones\0.1 docs\trimestre 6\Lista de chequeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFB01C-0DC7-4D60-B53B-CD367D02A494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ED6490-43BC-48EF-9BEB-317D99548824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -37,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="115">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -214,27 +212,15 @@
     <t>¿Se ofrecen las herramientas necesarias para añadir, borrar, mantener, exhibir, imprimir, buscar y actualizar datos?</t>
   </si>
   <si>
-    <t>¿Permite la recuperación de datos en tiempo real? (Recuperación)</t>
-  </si>
-  <si>
     <t>¿Se han especificado las pre-condiciones para cada una de las funcionalidades del sistema/software?</t>
   </si>
   <si>
     <t>¿El sistema tiene configurado un tiempo máximo de sesión de usuario?</t>
   </si>
   <si>
-    <t>¿Se ha especificado el tiempo de respuesta esperado de todas las operaciones especificadas?</t>
-  </si>
-  <si>
-    <t>¿Se han especificado otras consideraciones temporales, tales como el tiempo de procesamiento, el de transferencia de datos o la tasa de transferencia?</t>
-  </si>
-  <si>
     <t xml:space="preserve">¿Se ha establecido, para el uso de la memoria del servidor, un porcentaje que no exceda el uso de la memoria disponible? </t>
   </si>
   <si>
-    <t>¿Se ha especificado la fiabilidad del sistema/software, incluyendo las consecuencias en el caso de que falle?</t>
-  </si>
-  <si>
     <t>¿Se ha definido la adaptabilidad del sistema ya sea hardware, software, operaciones o de uso?</t>
   </si>
   <si>
@@ -271,12 +257,6 @@
     <t>¿Se identifican en los requisitos atributos relacionados con la capacidad del sistema para mantener su nivel de prestación de servicio en las condiciones establecidas durante un período?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿La capacidad del sistema para tolerar errores está especificada en los requisitos? </t>
-  </si>
-  <si>
-    <t>¿La capacidad del sistema para tolerar sobrecargas en el volumen de información, de usuarios o de procesos está especifica_x0002_da en los requisitos?</t>
-  </si>
-  <si>
     <t>¿Se tiene prevista la capacidad de protección contra el acceso de datos e información no autorizados, ya sea accidental o de_x0002_liberadamente?</t>
   </si>
   <si>
@@ -286,9 +266,6 @@
     <t>¿Se especifican los requerimientos software y hardware sobre los cuales el sistema funcionará correctamente?</t>
   </si>
   <si>
-    <t>¿Se especifican las conexiones soporta el sistema en un día sin reducir su rendimiento?</t>
-  </si>
-  <si>
     <t>¿Se especifican requisitos mínimos necesarios para que la aplicación funcione correctamente?</t>
   </si>
   <si>
@@ -311,12 +288,6 @@
   </si>
   <si>
     <t>¿Se ha especificado según el concepto anterior dichos requerimientos de accesibilidad?</t>
-  </si>
-  <si>
-    <t>¿Se ha especificado claramente de qué forma se accede a las funcionalidades del sistema/software</t>
-  </si>
-  <si>
-    <t>¿Se han especificado los requerimientos para la comunicación entre los componentes del sistema/software?</t>
   </si>
   <si>
     <t>¿Se han definido las interfaces externas, como por ejemplo usuarios o hardware?</t>
@@ -391,10 +362,6 @@
     <t>Gestión de logros: permite definir logros por materia y grado.</t>
   </si>
   <si>
-    <t>Gestión de notas: permite registrar notas por periodo, generar promedios 
-y consolidado.</t>
-  </si>
-  <si>
     <t>No Cumple</t>
   </si>
   <si>
@@ -425,6 +392,9 @@
   </si>
   <si>
     <t>Gestión de noticias: permite publicar comunicados y novedades institucionales.</t>
+  </si>
+  <si>
+    <t>Gestión de notas: permite registrar notas por periodo</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1157,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1341,28 +1311,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,48 +1379,35 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1826,91 +1799,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="10"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
@@ -1922,10 +1895,10 @@
       <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="15" t="s">
         <v>28</v>
       </c>
@@ -1937,10 +1910,10 @@
       <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="71"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
@@ -1950,8 +1923,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -1970,10 +1943,10 @@
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="73"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="24" t="s">
         <v>37</v>
       </c>
@@ -1985,10 +1958,10 @@
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="27" t="s">
         <v>25</v>
       </c>
@@ -1996,57 +1969,57 @@
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1">
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -2057,51 +2030,51 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="77"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="J36" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="80"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="34"/>
@@ -2262,16 +2235,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -2284,12 +2253,16 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -2302,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC27DB5-F54D-4E92-8170-7A53853F8C0C}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2319,7 +2292,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="42"/>
@@ -2343,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>IF(C3="Cumple","Ninguna","")</f>
@@ -2358,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" ref="D4" si="0">IF(C4="Cumple","Ninguna","")</f>
@@ -2373,7 +2346,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="42"/>
@@ -2397,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" ref="D7" si="1">IF(C7="Cumple","Ninguna","")</f>
@@ -2412,7 +2385,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -2436,10 +2409,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" ref="D10:D13" si="2">IF(C10="Cumple","Ninguna","")</f>
@@ -2451,10 +2424,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2466,10 +2439,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2481,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2496,7 +2469,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
@@ -2520,10 +2493,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" ref="D16:D32" si="3">IF(C16="Cumple","Ninguna","")</f>
@@ -2535,10 +2508,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2550,7 +2523,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
@@ -2574,10 +2547,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2589,10 +2562,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" ref="D21" si="4">IF(C21="Cumple","Ninguna","")</f>
@@ -2604,14 +2577,14 @@
         <v>12</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>IF(C22="Cumple","Ninguna","")</f>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2619,10 +2592,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>IF(C23="Cumple","Ninguna","")</f>
@@ -2634,7 +2607,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D24" s="42"/>
     </row>
@@ -2657,10 +2630,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2672,10 +2645,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2687,14 +2660,14 @@
         <v>16</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2702,7 +2675,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D29" s="42"/>
     </row>
@@ -2725,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2740,10 +2713,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3000,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3034,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>IF(C2="Cumple","Ninguna","")</f>
@@ -3049,10 +3022,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D54" si="0">IF(C3="Cumple","Ninguna","")</f>
+        <f t="shared" ref="D3:D45" si="0">IF(C3="Cumple","Ninguna","")</f>
         <v>Ninguna</v>
       </c>
     </row>
@@ -3064,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3073,13 +3046,13 @@
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3088,57 +3061,57 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="C7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="6" t="str">
+      <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3146,44 +3119,43 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3192,42 +3164,43 @@
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>7</v>
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3236,13 +3209,13 @@
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3251,13 +3224,13 @@
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3266,13 +3239,13 @@
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3280,29 +3253,28 @@
       </c>
     </row>
     <row r="19" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="8">
-        <v>20</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3311,13 +3283,13 @@
     </row>
     <row r="21" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3326,13 +3298,13 @@
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3340,132 +3312,132 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="39" t="s">
+      <c r="B24" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D24" s="39" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="8">
-        <v>24</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="8">
-        <v>27</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
+      <c r="A27" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>7</v>
+      <c r="A30" s="4">
+        <v>24</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3473,43 +3445,43 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="6" t="str">
+      <c r="A32" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3518,28 +3490,28 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
       <c r="A35" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1">
       <c r="A36" s="8">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3548,72 +3520,72 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1">
       <c r="A37" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ninguna</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="2">
+        <v>32</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1">
+      <c r="A40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="39" t="s">
+      <c r="B40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D40" s="39" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1">
-      <c r="A40" s="8">
-        <v>37</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
       <c r="A41" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3622,13 +3594,13 @@
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1">
       <c r="A42" s="8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3637,13 +3609,13 @@
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
       <c r="A43" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3652,13 +3624,13 @@
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1">
       <c r="A44" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3667,156 +3639,34 @@
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
       <c r="A45" s="8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1">
-      <c r="A46" s="8">
-        <v>43</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="8">
-        <v>44</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1">
-      <c r="A48" s="8">
-        <v>45</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
-      </c>
-    </row>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" customHeight="1"/>
+    <row r="47" spans="1:4" ht="30" customHeight="1"/>
+    <row r="48" spans="1:4" ht="30" customHeight="1"/>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1">
-      <c r="A50" s="2">
-        <v>46</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1">
-      <c r="A51" s="2">
-        <v>47</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
-      </c>
-    </row>
+      <c r="B49" s="51"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1"/>
+    <row r="51" spans="1:4" ht="30" customHeight="1"/>
     <row r="52" spans="1:4" ht="30" customHeight="1">
-      <c r="A52" s="2">
-        <v>48</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1">
-      <c r="A53" s="2">
-        <v>49</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1">
-      <c r="A54" s="2">
-        <v>50</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="8"/>
-    </row>
+      <c r="A52" s="90"/>
+    </row>
+    <row r="53" spans="1:4" ht="30" customHeight="1"/>
+    <row r="54" spans="1:4" ht="30" customHeight="1"/>
+    <row r="55" spans="1:4" ht="30" customHeight="1"/>
     <row r="56" spans="1:4" ht="30" customHeight="1"/>
     <row r="57" spans="1:4" ht="30" customHeight="1"/>
     <row r="58" spans="1:4" ht="30" customHeight="1"/>
@@ -3833,7 +3683,7 @@
     <row r="65" ht="30" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C22 C24:C29 C31:C32 C9:C13 C2:C7 C34:C38 C40:C48" xr:uid="{28946FFD-2DE3-4AFF-8B02-311FA9F788A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C18 C25:C26 C2:C6 C8:C9 C20:C23 C28:C31 C33:C39" xr:uid="{28946FFD-2DE3-4AFF-8B02-311FA9F788A5}">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3845,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D51D51-DE4C-4B5C-90F6-8EADB68EB458}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3890,11 +3740,11 @@
       </c>
       <c r="D2" s="5">
         <f>COUNTIF('Requisitos Funcionales'!C2:C32,"Cumple")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="48">
         <f>D2/C2%</f>
-        <v>83.333333333333343</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="F2" s="89"/>
     </row>
@@ -3907,34 +3757,34 @@
       </c>
       <c r="C3" s="5">
         <f>COUNT('Requisitos No Funcionales'!A:A)</f>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5">
         <f>COUNTIF('Requisitos No Funcionales'!C:C,"Cumple")</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="48">
         <f t="shared" ref="E3:E4" si="0">D3/C3%</f>
-        <v>67.391304347826079</v>
+        <v>100</v>
       </c>
       <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
       <c r="C4" s="46">
         <f>SUM(C2:C3)</f>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4" s="46">
         <f>SUM(D2:D3)</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E4" s="49">
         <f t="shared" si="0"/>
-        <v>71.875</v>
+        <v>98.181818181818173</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>IF(E4&gt;=90,"APROBADO",IF(AND(E4&gt;=70,E4&lt;90),"CORREGIR","NO APROBADO"))</f>
-        <v>CORREGIR</v>
+        <v>APROBADO</v>
       </c>
     </row>
   </sheetData>
